--- a/Prueba_2/DatosPracticaSQL.xlsx
+++ b/Prueba_2/DatosPracticaSQL.xlsx
@@ -821,10 +821,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F59395-E818-4ADC-80E6-2DFC510859EC}">
-  <dimension ref="A1:E130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
+  <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -837,7 +837,7 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -854,7 +854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="2">
       <c r="A2">
         <v>197463</v>
       </c>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="3">
       <c r="A3">
         <v>197464</v>
       </c>
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="4">
       <c r="A4">
         <v>197465</v>
       </c>
@@ -905,7 +905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="5">
       <c r="A5">
         <v>197466</v>
       </c>
@@ -922,7 +922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="6">
       <c r="A6">
         <v>197467</v>
       </c>
@@ -939,7 +939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="7">
       <c r="A7">
         <v>197468</v>
       </c>
@@ -956,7 +956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="8">
       <c r="A8">
         <v>197469</v>
       </c>
@@ -973,7 +973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="9">
       <c r="A9">
         <v>197470</v>
       </c>
@@ -990,7 +990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="10">
       <c r="A10">
         <v>197471</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="11">
       <c r="A11">
         <v>197472</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="12">
       <c r="A12">
         <v>197473</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="13">
       <c r="A13">
         <v>197474</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="14">
       <c r="A14">
         <v>197475</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="15">
       <c r="A15">
         <v>197476</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="16">
       <c r="A16">
         <v>197477</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="17">
       <c r="A17">
         <v>197478</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="18">
       <c r="A18">
         <v>197479</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="19">
       <c r="A19">
         <v>197480</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="20">
       <c r="A20">
         <v>197481</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="21">
       <c r="A21">
         <v>197482</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="22">
       <c r="A22">
         <v>197483</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="23">
       <c r="A23">
         <v>197484</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="24">
       <c r="A24">
         <v>197485</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="25">
       <c r="A25">
         <v>197486</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="26">
       <c r="A26">
         <v>197487</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="27">
       <c r="A27">
         <v>197488</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="28">
       <c r="A28">
         <v>197489</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="29">
       <c r="A29">
         <v>197490</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="30">
       <c r="A30">
         <v>197491</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="31">
       <c r="A31">
         <v>197492</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="32">
       <c r="A32">
         <v>197493</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="33">
       <c r="A33">
         <v>197494</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="34">
       <c r="A34">
         <v>197495</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="35">
       <c r="A35">
         <v>197496</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="36">
       <c r="A36">
         <v>197497</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="37">
       <c r="A37">
         <v>197498</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="38">
       <c r="A38">
         <v>197499</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="39">
       <c r="A39">
         <v>197500</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="40">
       <c r="A40">
         <v>197501</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="41">
       <c r="A41">
         <v>197502</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="42">
       <c r="A42">
         <v>197503</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="43">
       <c r="A43">
         <v>197504</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="44">
       <c r="A44">
         <v>197505</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="45">
       <c r="A45">
         <v>197506</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="46">
       <c r="A46">
         <v>197507</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="47">
       <c r="A47">
         <v>197508</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="48">
       <c r="A48">
         <v>197509</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="49">
       <c r="A49">
         <v>197510</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="50">
       <c r="A50">
         <v>197511</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="51">
       <c r="A51">
         <v>197512</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="52">
       <c r="A52">
         <v>197513</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="53">
       <c r="A53">
         <v>197514</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="54">
       <c r="A54">
         <v>197515</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="55">
       <c r="A55">
         <v>197516</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="56">
       <c r="A56">
         <v>197517</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="57">
       <c r="A57">
         <v>197518</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="58">
       <c r="A58">
         <v>197519</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="59">
       <c r="A59">
         <v>197520</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="60">
       <c r="A60">
         <v>197521</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="61">
       <c r="A61">
         <v>197522</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="62">
       <c r="A62">
         <v>197523</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="63">
       <c r="A63">
         <v>197524</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="64">
       <c r="A64">
         <v>197525</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="65">
       <c r="A65">
         <v>197526</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="66">
       <c r="A66">
         <v>197527</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="67">
       <c r="A67">
         <v>197528</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="68">
       <c r="A68">
         <v>197529</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="69">
       <c r="A69">
         <v>197530</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="70">
       <c r="A70">
         <v>197531</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="71">
       <c r="A71">
         <v>197532</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="72">
       <c r="A72">
         <v>197533</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="73">
       <c r="A73">
         <v>197534</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="74">
       <c r="A74">
         <v>197535</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="75">
       <c r="A75">
         <v>197536</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="76">
       <c r="A76">
         <v>197537</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="77">
       <c r="A77">
         <v>197538</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="78">
       <c r="A78">
         <v>197539</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="79">
       <c r="A79">
         <v>197540</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="80">
       <c r="A80">
         <v>197541</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="81">
       <c r="A81">
         <v>197542</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="82">
       <c r="A82">
         <v>197543</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="83">
       <c r="A83">
         <v>197544</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="84">
       <c r="A84">
         <v>197545</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="85">
       <c r="A85">
         <v>197546</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="86">
       <c r="A86">
         <v>197547</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="87">
       <c r="A87">
         <v>197548</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="88">
       <c r="A88">
         <v>197549</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="89">
       <c r="A89">
         <v>197550</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="90">
       <c r="A90">
         <v>197551</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="91">
       <c r="A91">
         <v>197552</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="92">
       <c r="A92">
         <v>197553</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="93">
       <c r="A93">
         <v>197554</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="94">
       <c r="A94">
         <v>197555</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="95">
       <c r="A95">
         <v>197556</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="96">
       <c r="A96">
         <v>197557</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="97">
       <c r="A97">
         <v>197558</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="98">
       <c r="A98">
         <v>197559</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="99">
       <c r="A99">
         <v>197560</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="100">
       <c r="A100">
         <v>197561</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="101">
       <c r="A101">
         <v>197562</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="102">
       <c r="A102">
         <v>197563</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="103">
       <c r="A103">
         <v>197564</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="104">
       <c r="A104">
         <v>197565</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="105">
       <c r="A105">
         <v>197566</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="106">
       <c r="A106">
         <v>197567</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="107">
       <c r="A107">
         <v>197568</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="108">
       <c r="A108">
         <v>197569</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="109">
       <c r="A109">
         <v>197570</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="110">
       <c r="A110">
         <v>197571</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="111">
       <c r="A111">
         <v>197572</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="112">
       <c r="A112">
         <v>197573</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="113">
       <c r="A113">
         <v>197574</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="114">
       <c r="A114">
         <v>197575</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="115">
       <c r="A115">
         <v>197576</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="116">
       <c r="A116">
         <v>197577</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="117">
       <c r="A117">
         <v>197578</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="118">
       <c r="A118">
         <v>197579</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="119">
       <c r="A119">
         <v>197580</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="120">
       <c r="A120">
         <v>197581</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="121">
       <c r="A121">
         <v>197582</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="122">
       <c r="A122">
         <v>197583</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="123">
       <c r="A123">
         <v>197584</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="124">
       <c r="A124">
         <v>197585</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="125">
       <c r="A125">
         <v>197586</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="126">
       <c r="A126">
         <v>197587</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="127">
       <c r="A127">
         <v>197588</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="128">
       <c r="A128">
         <v>197589</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="129">
       <c r="A129">
         <v>197590</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row spans="1:5" x14ac:dyDescent="0.2" outlineLevel="0" r="130">
       <c r="A130">
         <v>197591</v>
       </c>
@@ -3045,6 +3045,2715 @@
       </c>
       <c r="E130" s="7" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="131">
+      <c r="A131" s="10">
+        <v>197463</v>
+      </c>
+      <c r="B131" s="10" t="inlineStr">
+        <is>
+          <t>01-01-2020</t>
+        </is>
+      </c>
+      <c r="C131" s="10">
+        <v>60</v>
+      </c>
+      <c r="D131" s="10">
+        <v>8000000001</v>
+      </c>
+      <c r="E131" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="132">
+      <c r="A132" s="10">
+        <v>197464</v>
+      </c>
+      <c r="B132" s="10" t="inlineStr">
+        <is>
+          <t>02-01-2020</t>
+        </is>
+      </c>
+      <c r="C132" s="10">
+        <v>60</v>
+      </c>
+      <c r="D132" s="10">
+        <v>8000000002</v>
+      </c>
+      <c r="E132" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="133">
+      <c r="A133" s="10">
+        <v>197465</v>
+      </c>
+      <c r="B133" s="10" t="inlineStr">
+        <is>
+          <t>03-01-2020</t>
+        </is>
+      </c>
+      <c r="C133" s="10">
+        <v>240</v>
+      </c>
+      <c r="D133" s="10">
+        <v>8000000003</v>
+      </c>
+      <c r="E133" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="134">
+      <c r="A134" s="10">
+        <v>197466</v>
+      </c>
+      <c r="B134" s="10" t="inlineStr">
+        <is>
+          <t>04-01-2020</t>
+        </is>
+      </c>
+      <c r="C134" s="10">
+        <v>60</v>
+      </c>
+      <c r="D134" s="10">
+        <v>8000000004</v>
+      </c>
+      <c r="E134" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="135">
+      <c r="A135" s="10">
+        <v>197467</v>
+      </c>
+      <c r="B135" s="10" t="inlineStr">
+        <is>
+          <t>05-01-2020</t>
+        </is>
+      </c>
+      <c r="C135" s="10">
+        <v>60</v>
+      </c>
+      <c r="D135" s="10">
+        <v>8000000005</v>
+      </c>
+      <c r="E135" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="136">
+      <c r="A136" s="10">
+        <v>197468</v>
+      </c>
+      <c r="B136" s="10" t="inlineStr">
+        <is>
+          <t>06-01-2020</t>
+        </is>
+      </c>
+      <c r="C136" s="10">
+        <v>60</v>
+      </c>
+      <c r="D136" s="10">
+        <v>8000000006</v>
+      </c>
+      <c r="E136" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="137">
+      <c r="A137" s="10">
+        <v>197469</v>
+      </c>
+      <c r="B137" s="10" t="inlineStr">
+        <is>
+          <t>07-01-2020</t>
+        </is>
+      </c>
+      <c r="C137" s="10">
+        <v>60</v>
+      </c>
+      <c r="D137" s="10">
+        <v>8000000007</v>
+      </c>
+      <c r="E137" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="138">
+      <c r="A138" s="10">
+        <v>197470</v>
+      </c>
+      <c r="B138" s="10" t="inlineStr">
+        <is>
+          <t>08-01-2020</t>
+        </is>
+      </c>
+      <c r="C138" s="10">
+        <v>120</v>
+      </c>
+      <c r="D138" s="10">
+        <v>8000000008</v>
+      </c>
+      <c r="E138" s="10" t="inlineStr">
+        <is>
+          <t>LD nacional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="139">
+      <c r="A139" s="10">
+        <v>197471</v>
+      </c>
+      <c r="B139" s="10" t="inlineStr">
+        <is>
+          <t>09-01-2020</t>
+        </is>
+      </c>
+      <c r="C139" s="10">
+        <v>60</v>
+      </c>
+      <c r="D139" s="10">
+        <v>8000000009</v>
+      </c>
+      <c r="E139" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="140">
+      <c r="A140" s="10">
+        <v>197472</v>
+      </c>
+      <c r="B140" s="10" t="inlineStr">
+        <is>
+          <t>10-01-2020</t>
+        </is>
+      </c>
+      <c r="C140" s="10">
+        <v>60</v>
+      </c>
+      <c r="D140" s="10">
+        <v>8000000010</v>
+      </c>
+      <c r="E140" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="141">
+      <c r="A141" s="10">
+        <v>197473</v>
+      </c>
+      <c r="B141" s="10" t="inlineStr">
+        <is>
+          <t>11-01-2020</t>
+        </is>
+      </c>
+      <c r="C141" s="10">
+        <v>120</v>
+      </c>
+      <c r="D141" s="10">
+        <v>8000000011</v>
+      </c>
+      <c r="E141" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="142">
+      <c r="A142" s="10">
+        <v>197474</v>
+      </c>
+      <c r="B142" s="10" t="inlineStr">
+        <is>
+          <t>12-01-2020</t>
+        </is>
+      </c>
+      <c r="C142" s="10">
+        <v>60</v>
+      </c>
+      <c r="D142" s="10">
+        <v>8000000012</v>
+      </c>
+      <c r="E142" s="10" t="inlineStr">
+        <is>
+          <t>LD nacional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="143">
+      <c r="A143" s="10">
+        <v>197475</v>
+      </c>
+      <c r="B143" s="10" t="inlineStr">
+        <is>
+          <t>13-01-2020</t>
+        </is>
+      </c>
+      <c r="C143" s="10">
+        <v>60</v>
+      </c>
+      <c r="D143" s="10">
+        <v>8000000013</v>
+      </c>
+      <c r="E143" s="10" t="inlineStr">
+        <is>
+          <t>LD nacional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="144">
+      <c r="A144" s="10">
+        <v>197476</v>
+      </c>
+      <c r="B144" s="10" t="inlineStr">
+        <is>
+          <t>14-01-2020</t>
+        </is>
+      </c>
+      <c r="C144" s="10">
+        <v>60</v>
+      </c>
+      <c r="D144" s="10">
+        <v>8000000014</v>
+      </c>
+      <c r="E144" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="145">
+      <c r="A145" s="10">
+        <v>197477</v>
+      </c>
+      <c r="B145" s="10" t="inlineStr">
+        <is>
+          <t>15-01-2020</t>
+        </is>
+      </c>
+      <c r="C145" s="10">
+        <v>120</v>
+      </c>
+      <c r="D145" s="10">
+        <v>8000000015</v>
+      </c>
+      <c r="E145" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="146">
+      <c r="A146" s="10">
+        <v>197478</v>
+      </c>
+      <c r="B146" s="10" t="inlineStr">
+        <is>
+          <t>16-01-2020</t>
+        </is>
+      </c>
+      <c r="C146" s="10">
+        <v>60</v>
+      </c>
+      <c r="D146" s="10">
+        <v>8000000016</v>
+      </c>
+      <c r="E146" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="147">
+      <c r="A147" s="10">
+        <v>197479</v>
+      </c>
+      <c r="B147" s="10" t="inlineStr">
+        <is>
+          <t>17-01-2020</t>
+        </is>
+      </c>
+      <c r="C147" s="10">
+        <v>60</v>
+      </c>
+      <c r="D147" s="10">
+        <v>8000000017</v>
+      </c>
+      <c r="E147" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="148">
+      <c r="A148" s="10">
+        <v>197480</v>
+      </c>
+      <c r="B148" s="10" t="inlineStr">
+        <is>
+          <t>18-01-2020</t>
+        </is>
+      </c>
+      <c r="C148" s="10">
+        <v>60</v>
+      </c>
+      <c r="D148" s="10">
+        <v>8000000018</v>
+      </c>
+      <c r="E148" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="149">
+      <c r="A149" s="10">
+        <v>197481</v>
+      </c>
+      <c r="B149" s="10" t="inlineStr">
+        <is>
+          <t>19-01-2020</t>
+        </is>
+      </c>
+      <c r="C149" s="10">
+        <v>180</v>
+      </c>
+      <c r="D149" s="10">
+        <v>8000000019</v>
+      </c>
+      <c r="E149" s="10" t="inlineStr">
+        <is>
+          <t>LD nacional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="150">
+      <c r="A150" s="10">
+        <v>197482</v>
+      </c>
+      <c r="B150" s="10" t="inlineStr">
+        <is>
+          <t>20-01-2020</t>
+        </is>
+      </c>
+      <c r="C150" s="10">
+        <v>120</v>
+      </c>
+      <c r="D150" s="10">
+        <v>8000000020</v>
+      </c>
+      <c r="E150" s="10" t="inlineStr">
+        <is>
+          <t>LD nacional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="151">
+      <c r="A151" s="10">
+        <v>197483</v>
+      </c>
+      <c r="B151" s="10" t="inlineStr">
+        <is>
+          <t>21-01-2020</t>
+        </is>
+      </c>
+      <c r="C151" s="10">
+        <v>60</v>
+      </c>
+      <c r="D151" s="10">
+        <v>8000000021</v>
+      </c>
+      <c r="E151" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="152">
+      <c r="A152" s="10">
+        <v>197484</v>
+      </c>
+      <c r="B152" s="10" t="inlineStr">
+        <is>
+          <t>22-01-2020</t>
+        </is>
+      </c>
+      <c r="C152" s="10">
+        <v>60</v>
+      </c>
+      <c r="D152" s="10">
+        <v>8000000022</v>
+      </c>
+      <c r="E152" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="153">
+      <c r="A153" s="10">
+        <v>197485</v>
+      </c>
+      <c r="B153" s="10" t="inlineStr">
+        <is>
+          <t>23-01-2020</t>
+        </is>
+      </c>
+      <c r="C153" s="10">
+        <v>60</v>
+      </c>
+      <c r="D153" s="10">
+        <v>8000000023</v>
+      </c>
+      <c r="E153" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="154">
+      <c r="A154" s="10">
+        <v>197486</v>
+      </c>
+      <c r="B154" s="10" t="inlineStr">
+        <is>
+          <t>24-01-2020</t>
+        </is>
+      </c>
+      <c r="C154" s="10">
+        <v>120</v>
+      </c>
+      <c r="D154" s="10">
+        <v>8000000024</v>
+      </c>
+      <c r="E154" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="155">
+      <c r="A155" s="10">
+        <v>197487</v>
+      </c>
+      <c r="B155" s="10" t="inlineStr">
+        <is>
+          <t>25-01-2020</t>
+        </is>
+      </c>
+      <c r="C155" s="10">
+        <v>60</v>
+      </c>
+      <c r="D155" s="10">
+        <v>8000000025</v>
+      </c>
+      <c r="E155" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="156">
+      <c r="A156" s="10">
+        <v>197488</v>
+      </c>
+      <c r="B156" s="10" t="inlineStr">
+        <is>
+          <t>26-01-2020</t>
+        </is>
+      </c>
+      <c r="C156" s="10">
+        <v>60</v>
+      </c>
+      <c r="D156" s="10">
+        <v>8000000026</v>
+      </c>
+      <c r="E156" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="157">
+      <c r="A157" s="10">
+        <v>197489</v>
+      </c>
+      <c r="B157" s="10" t="inlineStr">
+        <is>
+          <t>27-01-2020</t>
+        </is>
+      </c>
+      <c r="C157" s="10">
+        <v>120</v>
+      </c>
+      <c r="D157" s="10">
+        <v>8000000027</v>
+      </c>
+      <c r="E157" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="158">
+      <c r="A158" s="10">
+        <v>197490</v>
+      </c>
+      <c r="B158" s="10" t="inlineStr">
+        <is>
+          <t>28-01-2020</t>
+        </is>
+      </c>
+      <c r="C158" s="10">
+        <v>60</v>
+      </c>
+      <c r="D158" s="10">
+        <v>8000000028</v>
+      </c>
+      <c r="E158" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="159">
+      <c r="A159" s="10">
+        <v>197491</v>
+      </c>
+      <c r="B159" s="10" t="inlineStr">
+        <is>
+          <t>29-01-2020</t>
+        </is>
+      </c>
+      <c r="C159" s="10">
+        <v>76</v>
+      </c>
+      <c r="D159" s="10">
+        <v>8000000029</v>
+      </c>
+      <c r="E159" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="160">
+      <c r="A160" s="10">
+        <v>197492</v>
+      </c>
+      <c r="B160" s="10" t="inlineStr">
+        <is>
+          <t>30-01-2020</t>
+        </is>
+      </c>
+      <c r="C160" s="10">
+        <v>60</v>
+      </c>
+      <c r="D160" s="10">
+        <v>8000000030</v>
+      </c>
+      <c r="E160" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="161">
+      <c r="A161" s="10">
+        <v>197493</v>
+      </c>
+      <c r="B161" s="10" t="inlineStr">
+        <is>
+          <t>31-01-2020</t>
+        </is>
+      </c>
+      <c r="C161" s="10">
+        <v>60</v>
+      </c>
+      <c r="D161" s="10">
+        <v>8000000031</v>
+      </c>
+      <c r="E161" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="162">
+      <c r="A162" s="10">
+        <v>197494</v>
+      </c>
+      <c r="B162" s="10" t="inlineStr">
+        <is>
+          <t>01-02-2020</t>
+        </is>
+      </c>
+      <c r="C162" s="10">
+        <v>60</v>
+      </c>
+      <c r="D162" s="10">
+        <v>8000000032</v>
+      </c>
+      <c r="E162" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="163">
+      <c r="A163" s="10">
+        <v>197495</v>
+      </c>
+      <c r="B163" s="10" t="inlineStr">
+        <is>
+          <t>02-02-2020</t>
+        </is>
+      </c>
+      <c r="C163" s="10">
+        <v>60</v>
+      </c>
+      <c r="D163" s="10">
+        <v>8000000033</v>
+      </c>
+      <c r="E163" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="164">
+      <c r="A164" s="10">
+        <v>197496</v>
+      </c>
+      <c r="B164" s="10" t="inlineStr">
+        <is>
+          <t>03-02-2020</t>
+        </is>
+      </c>
+      <c r="C164" s="10">
+        <v>240</v>
+      </c>
+      <c r="D164" s="10">
+        <v>8000000034</v>
+      </c>
+      <c r="E164" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="165">
+      <c r="A165" s="10">
+        <v>197497</v>
+      </c>
+      <c r="B165" s="10" t="inlineStr">
+        <is>
+          <t>04-02-2020</t>
+        </is>
+      </c>
+      <c r="C165" s="10">
+        <v>60</v>
+      </c>
+      <c r="D165" s="10">
+        <v>8000000035</v>
+      </c>
+      <c r="E165" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="166">
+      <c r="A166" s="10">
+        <v>197498</v>
+      </c>
+      <c r="B166" s="10" t="inlineStr">
+        <is>
+          <t>05-02-2020</t>
+        </is>
+      </c>
+      <c r="C166" s="10">
+        <v>240</v>
+      </c>
+      <c r="D166" s="10">
+        <v>8000000036</v>
+      </c>
+      <c r="E166" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="167">
+      <c r="A167" s="10">
+        <v>197499</v>
+      </c>
+      <c r="B167" s="10" t="inlineStr">
+        <is>
+          <t>06-02-2020</t>
+        </is>
+      </c>
+      <c r="C167" s="10">
+        <v>120</v>
+      </c>
+      <c r="D167" s="10">
+        <v>8000000037</v>
+      </c>
+      <c r="E167" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="168">
+      <c r="A168" s="10">
+        <v>197500</v>
+      </c>
+      <c r="B168" s="10" t="inlineStr">
+        <is>
+          <t>07-02-2020</t>
+        </is>
+      </c>
+      <c r="C168" s="10">
+        <v>95</v>
+      </c>
+      <c r="D168" s="10">
+        <v>8000000038</v>
+      </c>
+      <c r="E168" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="169">
+      <c r="A169" s="10">
+        <v>197501</v>
+      </c>
+      <c r="B169" s="10" t="inlineStr">
+        <is>
+          <t>08-02-2020</t>
+        </is>
+      </c>
+      <c r="C169" s="10">
+        <v>60</v>
+      </c>
+      <c r="D169" s="10">
+        <v>8000000039</v>
+      </c>
+      <c r="E169" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="170">
+      <c r="A170" s="10">
+        <v>197502</v>
+      </c>
+      <c r="B170" s="10" t="inlineStr">
+        <is>
+          <t>09-02-2020</t>
+        </is>
+      </c>
+      <c r="C170" s="10">
+        <v>60</v>
+      </c>
+      <c r="D170" s="10">
+        <v>8000000040</v>
+      </c>
+      <c r="E170" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="171">
+      <c r="A171" s="10">
+        <v>197503</v>
+      </c>
+      <c r="B171" s="10" t="inlineStr">
+        <is>
+          <t>10-02-2020</t>
+        </is>
+      </c>
+      <c r="C171" s="10">
+        <v>360</v>
+      </c>
+      <c r="D171" s="10">
+        <v>8000000041</v>
+      </c>
+      <c r="E171" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="172">
+      <c r="A172" s="10">
+        <v>197504</v>
+      </c>
+      <c r="B172" s="10" t="inlineStr">
+        <is>
+          <t>11-02-2020</t>
+        </is>
+      </c>
+      <c r="C172" s="10">
+        <v>60</v>
+      </c>
+      <c r="D172" s="10">
+        <v>8000000042</v>
+      </c>
+      <c r="E172" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="173">
+      <c r="A173" s="10">
+        <v>197505</v>
+      </c>
+      <c r="B173" s="10" t="inlineStr">
+        <is>
+          <t>12-02-2020</t>
+        </is>
+      </c>
+      <c r="C173" s="10">
+        <v>60</v>
+      </c>
+      <c r="D173" s="10">
+        <v>8000000043</v>
+      </c>
+      <c r="E173" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="174">
+      <c r="A174" s="10">
+        <v>197506</v>
+      </c>
+      <c r="B174" s="10" t="inlineStr">
+        <is>
+          <t>13-02-2020</t>
+        </is>
+      </c>
+      <c r="C174" s="10">
+        <v>60</v>
+      </c>
+      <c r="D174" s="10">
+        <v>8000000044</v>
+      </c>
+      <c r="E174" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="175">
+      <c r="A175" s="10">
+        <v>197507</v>
+      </c>
+      <c r="B175" s="10" t="inlineStr">
+        <is>
+          <t>14-02-2020</t>
+        </is>
+      </c>
+      <c r="C175" s="10">
+        <v>120</v>
+      </c>
+      <c r="D175" s="10">
+        <v>8000000045</v>
+      </c>
+      <c r="E175" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="176">
+      <c r="A176" s="10">
+        <v>197508</v>
+      </c>
+      <c r="B176" s="10" t="inlineStr">
+        <is>
+          <t>15-02-2020</t>
+        </is>
+      </c>
+      <c r="C176" s="10">
+        <v>60</v>
+      </c>
+      <c r="D176" s="10">
+        <v>8000000046</v>
+      </c>
+      <c r="E176" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="177">
+      <c r="A177" s="10">
+        <v>197509</v>
+      </c>
+      <c r="B177" s="10" t="inlineStr">
+        <is>
+          <t>16-02-2020</t>
+        </is>
+      </c>
+      <c r="C177" s="10">
+        <v>60</v>
+      </c>
+      <c r="D177" s="10">
+        <v>8000000047</v>
+      </c>
+      <c r="E177" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="178">
+      <c r="A178" s="10">
+        <v>197510</v>
+      </c>
+      <c r="B178" s="10" t="inlineStr">
+        <is>
+          <t>17-02-2020</t>
+        </is>
+      </c>
+      <c r="C178" s="10">
+        <v>120</v>
+      </c>
+      <c r="D178" s="10">
+        <v>8000000048</v>
+      </c>
+      <c r="E178" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="179">
+      <c r="A179" s="10">
+        <v>197511</v>
+      </c>
+      <c r="B179" s="10" t="inlineStr">
+        <is>
+          <t>18-02-2020</t>
+        </is>
+      </c>
+      <c r="C179" s="10">
+        <v>120</v>
+      </c>
+      <c r="D179" s="10">
+        <v>8000000049</v>
+      </c>
+      <c r="E179" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="180">
+      <c r="A180" s="10">
+        <v>197512</v>
+      </c>
+      <c r="B180" s="10" t="inlineStr">
+        <is>
+          <t>19-02-2020</t>
+        </is>
+      </c>
+      <c r="C180" s="10">
+        <v>60</v>
+      </c>
+      <c r="D180" s="10">
+        <v>8000000050</v>
+      </c>
+      <c r="E180" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="181">
+      <c r="A181" s="10">
+        <v>197513</v>
+      </c>
+      <c r="B181" s="10" t="inlineStr">
+        <is>
+          <t>20-02-2020</t>
+        </is>
+      </c>
+      <c r="C181" s="10">
+        <v>85</v>
+      </c>
+      <c r="D181" s="10">
+        <v>8000000051</v>
+      </c>
+      <c r="E181" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="182">
+      <c r="A182" s="10">
+        <v>197514</v>
+      </c>
+      <c r="B182" s="10" t="inlineStr">
+        <is>
+          <t>21-02-2020</t>
+        </is>
+      </c>
+      <c r="C182" s="10">
+        <v>60</v>
+      </c>
+      <c r="D182" s="10">
+        <v>8000000052</v>
+      </c>
+      <c r="E182" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="183">
+      <c r="A183" s="10">
+        <v>197515</v>
+      </c>
+      <c r="B183" s="10" t="inlineStr">
+        <is>
+          <t>22-02-2020</t>
+        </is>
+      </c>
+      <c r="C183" s="10">
+        <v>60</v>
+      </c>
+      <c r="D183" s="10">
+        <v>8000000053</v>
+      </c>
+      <c r="E183" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="184">
+      <c r="A184" s="10">
+        <v>197516</v>
+      </c>
+      <c r="B184" s="10" t="inlineStr">
+        <is>
+          <t>23-02-2020</t>
+        </is>
+      </c>
+      <c r="C184" s="10">
+        <v>120</v>
+      </c>
+      <c r="D184" s="10">
+        <v>8000000054</v>
+      </c>
+      <c r="E184" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="185">
+      <c r="A185" s="10">
+        <v>197517</v>
+      </c>
+      <c r="B185" s="10" t="inlineStr">
+        <is>
+          <t>24-02-2020</t>
+        </is>
+      </c>
+      <c r="C185" s="10">
+        <v>120</v>
+      </c>
+      <c r="D185" s="10">
+        <v>8000000055</v>
+      </c>
+      <c r="E185" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="186">
+      <c r="A186" s="10">
+        <v>197518</v>
+      </c>
+      <c r="B186" s="10" t="inlineStr">
+        <is>
+          <t>25-02-2020</t>
+        </is>
+      </c>
+      <c r="C186" s="10">
+        <v>240</v>
+      </c>
+      <c r="D186" s="10">
+        <v>8000000056</v>
+      </c>
+      <c r="E186" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="187">
+      <c r="A187" s="10">
+        <v>197519</v>
+      </c>
+      <c r="B187" s="10" t="inlineStr">
+        <is>
+          <t>26-02-2020</t>
+        </is>
+      </c>
+      <c r="C187" s="10">
+        <v>60</v>
+      </c>
+      <c r="D187" s="10">
+        <v>8000000057</v>
+      </c>
+      <c r="E187" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="188">
+      <c r="A188" s="10">
+        <v>197520</v>
+      </c>
+      <c r="B188" s="10" t="inlineStr">
+        <is>
+          <t>27-02-2020</t>
+        </is>
+      </c>
+      <c r="C188" s="10">
+        <v>180</v>
+      </c>
+      <c r="D188" s="10">
+        <v>8000000058</v>
+      </c>
+      <c r="E188" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="189">
+      <c r="A189" s="10">
+        <v>197521</v>
+      </c>
+      <c r="B189" s="10" t="inlineStr">
+        <is>
+          <t>28-02-2020</t>
+        </is>
+      </c>
+      <c r="C189" s="10">
+        <v>180</v>
+      </c>
+      <c r="D189" s="10">
+        <v>8000000059</v>
+      </c>
+      <c r="E189" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="190">
+      <c r="A190" s="10">
+        <v>197522</v>
+      </c>
+      <c r="B190" s="10" t="inlineStr">
+        <is>
+          <t>29-02-2020</t>
+        </is>
+      </c>
+      <c r="C190" s="10">
+        <v>120</v>
+      </c>
+      <c r="D190" s="10">
+        <v>8000000060</v>
+      </c>
+      <c r="E190" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="191">
+      <c r="A191" s="10">
+        <v>197523</v>
+      </c>
+      <c r="B191" s="10" t="inlineStr">
+        <is>
+          <t>01-03-2020</t>
+        </is>
+      </c>
+      <c r="C191" s="10">
+        <v>60</v>
+      </c>
+      <c r="D191" s="10">
+        <v>8000000061</v>
+      </c>
+      <c r="E191" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="192">
+      <c r="A192" s="10">
+        <v>197524</v>
+      </c>
+      <c r="B192" s="10" t="inlineStr">
+        <is>
+          <t>02-03-2020</t>
+        </is>
+      </c>
+      <c r="C192" s="10">
+        <v>60</v>
+      </c>
+      <c r="D192" s="10">
+        <v>8000000062</v>
+      </c>
+      <c r="E192" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="193">
+      <c r="A193" s="10">
+        <v>197525</v>
+      </c>
+      <c r="B193" s="10" t="inlineStr">
+        <is>
+          <t>03-03-2020</t>
+        </is>
+      </c>
+      <c r="C193" s="10">
+        <v>120</v>
+      </c>
+      <c r="D193" s="10">
+        <v>8000000063</v>
+      </c>
+      <c r="E193" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="194">
+      <c r="A194" s="10">
+        <v>197526</v>
+      </c>
+      <c r="B194" s="10" t="inlineStr">
+        <is>
+          <t>04-03-2020</t>
+        </is>
+      </c>
+      <c r="C194" s="10">
+        <v>60</v>
+      </c>
+      <c r="D194" s="10">
+        <v>8000000064</v>
+      </c>
+      <c r="E194" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="195">
+      <c r="A195" s="10">
+        <v>197527</v>
+      </c>
+      <c r="B195" s="10" t="inlineStr">
+        <is>
+          <t>05-03-2020</t>
+        </is>
+      </c>
+      <c r="C195" s="10">
+        <v>60</v>
+      </c>
+      <c r="D195" s="10">
+        <v>8000000065</v>
+      </c>
+      <c r="E195" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="196">
+      <c r="A196" s="10">
+        <v>197528</v>
+      </c>
+      <c r="B196" s="10" t="inlineStr">
+        <is>
+          <t>06-03-2020</t>
+        </is>
+      </c>
+      <c r="C196" s="10">
+        <v>60</v>
+      </c>
+      <c r="D196" s="10">
+        <v>8000000066</v>
+      </c>
+      <c r="E196" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="197">
+      <c r="A197" s="10">
+        <v>197529</v>
+      </c>
+      <c r="B197" s="10" t="inlineStr">
+        <is>
+          <t>07-03-2020</t>
+        </is>
+      </c>
+      <c r="C197" s="10">
+        <v>60</v>
+      </c>
+      <c r="D197" s="10">
+        <v>8000000067</v>
+      </c>
+      <c r="E197" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="198">
+      <c r="A198" s="10">
+        <v>197530</v>
+      </c>
+      <c r="B198" s="10" t="inlineStr">
+        <is>
+          <t>08-03-2020</t>
+        </is>
+      </c>
+      <c r="C198" s="10">
+        <v>60</v>
+      </c>
+      <c r="D198" s="10">
+        <v>8000000068</v>
+      </c>
+      <c r="E198" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="199">
+      <c r="A199" s="10">
+        <v>197531</v>
+      </c>
+      <c r="B199" s="10" t="inlineStr">
+        <is>
+          <t>09-03-2020</t>
+        </is>
+      </c>
+      <c r="C199" s="10">
+        <v>60</v>
+      </c>
+      <c r="D199" s="10">
+        <v>8000000069</v>
+      </c>
+      <c r="E199" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="200">
+      <c r="A200" s="10">
+        <v>197532</v>
+      </c>
+      <c r="B200" s="10" t="inlineStr">
+        <is>
+          <t>10-03-2020</t>
+        </is>
+      </c>
+      <c r="C200" s="10">
+        <v>60</v>
+      </c>
+      <c r="D200" s="10">
+        <v>8000000070</v>
+      </c>
+      <c r="E200" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="201">
+      <c r="A201" s="10">
+        <v>197533</v>
+      </c>
+      <c r="B201" s="10" t="inlineStr">
+        <is>
+          <t>11-03-2020</t>
+        </is>
+      </c>
+      <c r="C201" s="10">
+        <v>60</v>
+      </c>
+      <c r="D201" s="10">
+        <v>8000000071</v>
+      </c>
+      <c r="E201" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="202">
+      <c r="A202" s="10">
+        <v>197534</v>
+      </c>
+      <c r="B202" s="10" t="inlineStr">
+        <is>
+          <t>12-03-2020</t>
+        </is>
+      </c>
+      <c r="C202" s="10">
+        <v>120</v>
+      </c>
+      <c r="D202" s="10">
+        <v>8000000072</v>
+      </c>
+      <c r="E202" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="203">
+      <c r="A203" s="10">
+        <v>197535</v>
+      </c>
+      <c r="B203" s="10" t="inlineStr">
+        <is>
+          <t>13-03-2020</t>
+        </is>
+      </c>
+      <c r="C203" s="10">
+        <v>60</v>
+      </c>
+      <c r="D203" s="10">
+        <v>8000000073</v>
+      </c>
+      <c r="E203" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="204">
+      <c r="A204" s="10">
+        <v>197536</v>
+      </c>
+      <c r="B204" s="10" t="inlineStr">
+        <is>
+          <t>14-03-2020</t>
+        </is>
+      </c>
+      <c r="C204" s="10">
+        <v>60</v>
+      </c>
+      <c r="D204" s="10">
+        <v>8000000074</v>
+      </c>
+      <c r="E204" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="205">
+      <c r="A205" s="10">
+        <v>197537</v>
+      </c>
+      <c r="B205" s="10" t="inlineStr">
+        <is>
+          <t>15-03-2020</t>
+        </is>
+      </c>
+      <c r="C205" s="10">
+        <v>60</v>
+      </c>
+      <c r="D205" s="10">
+        <v>8000000075</v>
+      </c>
+      <c r="E205" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="206">
+      <c r="A206" s="10">
+        <v>197538</v>
+      </c>
+      <c r="B206" s="10" t="inlineStr">
+        <is>
+          <t>16-03-2020</t>
+        </is>
+      </c>
+      <c r="C206" s="10">
+        <v>120</v>
+      </c>
+      <c r="D206" s="10">
+        <v>8000000076</v>
+      </c>
+      <c r="E206" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="207">
+      <c r="A207" s="10">
+        <v>197539</v>
+      </c>
+      <c r="B207" s="10" t="inlineStr">
+        <is>
+          <t>17-03-2020</t>
+        </is>
+      </c>
+      <c r="C207" s="10">
+        <v>60</v>
+      </c>
+      <c r="D207" s="10">
+        <v>8000000077</v>
+      </c>
+      <c r="E207" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="208">
+      <c r="A208" s="10">
+        <v>197540</v>
+      </c>
+      <c r="B208" s="10" t="inlineStr">
+        <is>
+          <t>18-03-2020</t>
+        </is>
+      </c>
+      <c r="C208" s="10">
+        <v>60</v>
+      </c>
+      <c r="D208" s="10">
+        <v>8000000078</v>
+      </c>
+      <c r="E208" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="209">
+      <c r="A209" s="10">
+        <v>197541</v>
+      </c>
+      <c r="B209" s="10" t="inlineStr">
+        <is>
+          <t>19-03-2020</t>
+        </is>
+      </c>
+      <c r="C209" s="10">
+        <v>86</v>
+      </c>
+      <c r="D209" s="10">
+        <v>8000000079</v>
+      </c>
+      <c r="E209" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="210">
+      <c r="A210" s="10">
+        <v>197542</v>
+      </c>
+      <c r="B210" s="10" t="inlineStr">
+        <is>
+          <t>20-03-2020</t>
+        </is>
+      </c>
+      <c r="C210" s="10">
+        <v>120</v>
+      </c>
+      <c r="D210" s="10">
+        <v>8000000080</v>
+      </c>
+      <c r="E210" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="211">
+      <c r="A211" s="10">
+        <v>197543</v>
+      </c>
+      <c r="B211" s="10" t="inlineStr">
+        <is>
+          <t>21-03-2020</t>
+        </is>
+      </c>
+      <c r="C211" s="10">
+        <v>120</v>
+      </c>
+      <c r="D211" s="10">
+        <v>8000000081</v>
+      </c>
+      <c r="E211" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="212">
+      <c r="A212" s="10">
+        <v>197544</v>
+      </c>
+      <c r="B212" s="10" t="inlineStr">
+        <is>
+          <t>22-03-2020</t>
+        </is>
+      </c>
+      <c r="C212" s="10">
+        <v>60</v>
+      </c>
+      <c r="D212" s="10">
+        <v>8000000082</v>
+      </c>
+      <c r="E212" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="213">
+      <c r="A213" s="10">
+        <v>197545</v>
+      </c>
+      <c r="B213" s="10" t="inlineStr">
+        <is>
+          <t>23-03-2020</t>
+        </is>
+      </c>
+      <c r="C213" s="10">
+        <v>77</v>
+      </c>
+      <c r="D213" s="10">
+        <v>8000000083</v>
+      </c>
+      <c r="E213" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="214">
+      <c r="A214" s="10">
+        <v>197546</v>
+      </c>
+      <c r="B214" s="10" t="inlineStr">
+        <is>
+          <t>24-03-2020</t>
+        </is>
+      </c>
+      <c r="C214" s="10">
+        <v>60</v>
+      </c>
+      <c r="D214" s="10">
+        <v>8000000084</v>
+      </c>
+      <c r="E214" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="215">
+      <c r="A215" s="10">
+        <v>197547</v>
+      </c>
+      <c r="B215" s="10" t="inlineStr">
+        <is>
+          <t>25-03-2020</t>
+        </is>
+      </c>
+      <c r="C215" s="10">
+        <v>60</v>
+      </c>
+      <c r="D215" s="10">
+        <v>8000000085</v>
+      </c>
+      <c r="E215" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="216">
+      <c r="A216" s="10">
+        <v>197548</v>
+      </c>
+      <c r="B216" s="10" t="inlineStr">
+        <is>
+          <t>26-03-2020</t>
+        </is>
+      </c>
+      <c r="C216" s="10">
+        <v>120</v>
+      </c>
+      <c r="D216" s="10">
+        <v>8000000086</v>
+      </c>
+      <c r="E216" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="217">
+      <c r="A217" s="10">
+        <v>197549</v>
+      </c>
+      <c r="B217" s="10" t="inlineStr">
+        <is>
+          <t>27-03-2020</t>
+        </is>
+      </c>
+      <c r="C217" s="10">
+        <v>180</v>
+      </c>
+      <c r="D217" s="10">
+        <v>8000000087</v>
+      </c>
+      <c r="E217" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="218">
+      <c r="A218" s="10">
+        <v>197550</v>
+      </c>
+      <c r="B218" s="10" t="inlineStr">
+        <is>
+          <t>28-03-2020</t>
+        </is>
+      </c>
+      <c r="C218" s="10">
+        <v>180</v>
+      </c>
+      <c r="D218" s="10">
+        <v>8000000088</v>
+      </c>
+      <c r="E218" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="219">
+      <c r="A219" s="10">
+        <v>197551</v>
+      </c>
+      <c r="B219" s="10" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="C219" s="10">
+        <v>60</v>
+      </c>
+      <c r="D219" s="10">
+        <v>8000000089</v>
+      </c>
+      <c r="E219" s="10" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="220">
+      <c r="A220" s="10">
+        <v>197552</v>
+      </c>
+      <c r="B220" s="10" t="inlineStr">
+        <is>
+          <t>30-03-2020</t>
+        </is>
+      </c>
+      <c r="C220" s="10">
+        <v>60</v>
+      </c>
+      <c r="D220" s="10">
+        <v>8000000090</v>
+      </c>
+      <c r="E220" s="10" t="inlineStr">
+        <is>
+          <t>LD nacional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="221">
+      <c r="A221" s="10">
+        <v>197553</v>
+      </c>
+      <c r="B221" s="10" t="inlineStr">
+        <is>
+          <t>31-03-2020</t>
+        </is>
+      </c>
+      <c r="C221" s="10">
+        <v>60</v>
+      </c>
+      <c r="D221" s="10">
+        <v>8000000091</v>
+      </c>
+      <c r="E221" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="222">
+      <c r="A222" s="10">
+        <v>197554</v>
+      </c>
+      <c r="B222" s="10" t="inlineStr">
+        <is>
+          <t>01-04-2020</t>
+        </is>
+      </c>
+      <c r="C222" s="10">
+        <v>60</v>
+      </c>
+      <c r="D222" s="10">
+        <v>8000000092</v>
+      </c>
+      <c r="E222" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="223">
+      <c r="A223" s="10">
+        <v>197555</v>
+      </c>
+      <c r="B223" s="10" t="inlineStr">
+        <is>
+          <t>02-04-2020</t>
+        </is>
+      </c>
+      <c r="C223" s="10">
+        <v>60</v>
+      </c>
+      <c r="D223" s="10">
+        <v>8000000093</v>
+      </c>
+      <c r="E223" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="224">
+      <c r="A224" s="10">
+        <v>197556</v>
+      </c>
+      <c r="B224" s="10" t="inlineStr">
+        <is>
+          <t>03-04-2020</t>
+        </is>
+      </c>
+      <c r="C224" s="10">
+        <v>180</v>
+      </c>
+      <c r="D224" s="10">
+        <v>8000000094</v>
+      </c>
+      <c r="E224" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="225">
+      <c r="A225" s="10">
+        <v>197557</v>
+      </c>
+      <c r="B225" s="10" t="inlineStr">
+        <is>
+          <t>04-04-2020</t>
+        </is>
+      </c>
+      <c r="C225" s="10">
+        <v>60</v>
+      </c>
+      <c r="D225" s="10">
+        <v>8000000095</v>
+      </c>
+      <c r="E225" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="226">
+      <c r="A226" s="10">
+        <v>197558</v>
+      </c>
+      <c r="B226" s="10" t="inlineStr">
+        <is>
+          <t>05-04-2020</t>
+        </is>
+      </c>
+      <c r="C226" s="10">
+        <v>196</v>
+      </c>
+      <c r="D226" s="10">
+        <v>8000000096</v>
+      </c>
+      <c r="E226" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="227">
+      <c r="A227" s="10">
+        <v>197559</v>
+      </c>
+      <c r="B227" s="10" t="inlineStr">
+        <is>
+          <t>06-04-2020</t>
+        </is>
+      </c>
+      <c r="C227" s="10">
+        <v>60</v>
+      </c>
+      <c r="D227" s="10">
+        <v>8000000097</v>
+      </c>
+      <c r="E227" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="228">
+      <c r="A228" s="10">
+        <v>197560</v>
+      </c>
+      <c r="B228" s="10" t="inlineStr">
+        <is>
+          <t>07-04-2020</t>
+        </is>
+      </c>
+      <c r="C228" s="10">
+        <v>60</v>
+      </c>
+      <c r="D228" s="10">
+        <v>8000000098</v>
+      </c>
+      <c r="E228" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="229">
+      <c r="A229" s="10">
+        <v>197561</v>
+      </c>
+      <c r="B229" s="10" t="inlineStr">
+        <is>
+          <t>08-04-2020</t>
+        </is>
+      </c>
+      <c r="C229" s="10">
+        <v>60</v>
+      </c>
+      <c r="D229" s="10">
+        <v>8000000099</v>
+      </c>
+      <c r="E229" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="230">
+      <c r="A230" s="10">
+        <v>197562</v>
+      </c>
+      <c r="B230" s="10" t="inlineStr">
+        <is>
+          <t>09-04-2020</t>
+        </is>
+      </c>
+      <c r="C230" s="10">
+        <v>60</v>
+      </c>
+      <c r="D230" s="10">
+        <v>8000000100</v>
+      </c>
+      <c r="E230" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="231">
+      <c r="A231" s="10">
+        <v>197563</v>
+      </c>
+      <c r="B231" s="10" t="inlineStr">
+        <is>
+          <t>10-04-2020</t>
+        </is>
+      </c>
+      <c r="C231" s="10">
+        <v>60</v>
+      </c>
+      <c r="D231" s="10">
+        <v>8000000101</v>
+      </c>
+      <c r="E231" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="232">
+      <c r="A232" s="10">
+        <v>197564</v>
+      </c>
+      <c r="B232" s="10" t="inlineStr">
+        <is>
+          <t>11-04-2020</t>
+        </is>
+      </c>
+      <c r="C232" s="10">
+        <v>60</v>
+      </c>
+      <c r="D232" s="10">
+        <v>8000000102</v>
+      </c>
+      <c r="E232" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="233">
+      <c r="A233" s="10">
+        <v>197565</v>
+      </c>
+      <c r="B233" s="10" t="inlineStr">
+        <is>
+          <t>12-04-2020</t>
+        </is>
+      </c>
+      <c r="C233" s="10">
+        <v>60</v>
+      </c>
+      <c r="D233" s="10">
+        <v>8000000103</v>
+      </c>
+      <c r="E233" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="234">
+      <c r="A234" s="10">
+        <v>197566</v>
+      </c>
+      <c r="B234" s="10" t="inlineStr">
+        <is>
+          <t>13-04-2020</t>
+        </is>
+      </c>
+      <c r="C234" s="10">
+        <v>120</v>
+      </c>
+      <c r="D234" s="10">
+        <v>8000000104</v>
+      </c>
+      <c r="E234" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="235">
+      <c r="A235" s="10">
+        <v>197567</v>
+      </c>
+      <c r="B235" s="10" t="inlineStr">
+        <is>
+          <t>14-04-2020</t>
+        </is>
+      </c>
+      <c r="C235" s="10">
+        <v>180</v>
+      </c>
+      <c r="D235" s="10">
+        <v>8000000105</v>
+      </c>
+      <c r="E235" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="236">
+      <c r="A236" s="10">
+        <v>197568</v>
+      </c>
+      <c r="B236" s="10" t="inlineStr">
+        <is>
+          <t>15-04-2020</t>
+        </is>
+      </c>
+      <c r="C236" s="10">
+        <v>60</v>
+      </c>
+      <c r="D236" s="10">
+        <v>8000000106</v>
+      </c>
+      <c r="E236" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="237">
+      <c r="A237" s="10">
+        <v>197569</v>
+      </c>
+      <c r="B237" s="10" t="inlineStr">
+        <is>
+          <t>16-04-2020</t>
+        </is>
+      </c>
+      <c r="C237" s="10">
+        <v>60</v>
+      </c>
+      <c r="D237" s="10">
+        <v>8000000107</v>
+      </c>
+      <c r="E237" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="238">
+      <c r="A238" s="10">
+        <v>197570</v>
+      </c>
+      <c r="B238" s="10" t="inlineStr">
+        <is>
+          <t>17-04-2020</t>
+        </is>
+      </c>
+      <c r="C238" s="10">
+        <v>60</v>
+      </c>
+      <c r="D238" s="10">
+        <v>8000000108</v>
+      </c>
+      <c r="E238" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="239">
+      <c r="A239" s="10">
+        <v>197571</v>
+      </c>
+      <c r="B239" s="10" t="inlineStr">
+        <is>
+          <t>18-04-2020</t>
+        </is>
+      </c>
+      <c r="C239" s="10">
+        <v>180</v>
+      </c>
+      <c r="D239" s="10">
+        <v>8000000109</v>
+      </c>
+      <c r="E239" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="240">
+      <c r="A240" s="10">
+        <v>197572</v>
+      </c>
+      <c r="B240" s="10" t="inlineStr">
+        <is>
+          <t>19-04-2020</t>
+        </is>
+      </c>
+      <c r="C240" s="10">
+        <v>60</v>
+      </c>
+      <c r="D240" s="10">
+        <v>8000000110</v>
+      </c>
+      <c r="E240" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="241">
+      <c r="A241" s="10">
+        <v>197573</v>
+      </c>
+      <c r="B241" s="10" t="inlineStr">
+        <is>
+          <t>20-04-2020</t>
+        </is>
+      </c>
+      <c r="C241" s="10">
+        <v>60</v>
+      </c>
+      <c r="D241" s="10">
+        <v>8000000111</v>
+      </c>
+      <c r="E241" s="10" t="inlineStr">
+        <is>
+          <t>LD nacional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="242">
+      <c r="A242" s="10">
+        <v>197574</v>
+      </c>
+      <c r="B242" s="10" t="inlineStr">
+        <is>
+          <t>21-04-2020</t>
+        </is>
+      </c>
+      <c r="C242" s="10">
+        <v>60</v>
+      </c>
+      <c r="D242" s="10">
+        <v>8000000112</v>
+      </c>
+      <c r="E242" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="243">
+      <c r="A243" s="10">
+        <v>197575</v>
+      </c>
+      <c r="B243" s="10" t="inlineStr">
+        <is>
+          <t>22-04-2020</t>
+        </is>
+      </c>
+      <c r="C243" s="10">
+        <v>60</v>
+      </c>
+      <c r="D243" s="10">
+        <v>8000000113</v>
+      </c>
+      <c r="E243" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="244">
+      <c r="A244" s="10">
+        <v>197576</v>
+      </c>
+      <c r="B244" s="10" t="inlineStr">
+        <is>
+          <t>23-04-2020</t>
+        </is>
+      </c>
+      <c r="C244" s="10">
+        <v>60</v>
+      </c>
+      <c r="D244" s="10">
+        <v>8000000114</v>
+      </c>
+      <c r="E244" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="245">
+      <c r="A245" s="10">
+        <v>197577</v>
+      </c>
+      <c r="B245" s="10" t="inlineStr">
+        <is>
+          <t>24-04-2020</t>
+        </is>
+      </c>
+      <c r="C245" s="10">
+        <v>60</v>
+      </c>
+      <c r="D245" s="10">
+        <v>8000000115</v>
+      </c>
+      <c r="E245" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="246">
+      <c r="A246" s="10">
+        <v>197578</v>
+      </c>
+      <c r="B246" s="10" t="inlineStr">
+        <is>
+          <t>25-04-2020</t>
+        </is>
+      </c>
+      <c r="C246" s="10">
+        <v>60</v>
+      </c>
+      <c r="D246" s="10">
+        <v>8000000116</v>
+      </c>
+      <c r="E246" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="247">
+      <c r="A247" s="10">
+        <v>197579</v>
+      </c>
+      <c r="B247" s="10" t="inlineStr">
+        <is>
+          <t>26-04-2020</t>
+        </is>
+      </c>
+      <c r="C247" s="10">
+        <v>60</v>
+      </c>
+      <c r="D247" s="10">
+        <v>8000000117</v>
+      </c>
+      <c r="E247" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="248">
+      <c r="A248" s="10">
+        <v>197580</v>
+      </c>
+      <c r="B248" s="10" t="inlineStr">
+        <is>
+          <t>27-04-2020</t>
+        </is>
+      </c>
+      <c r="C248" s="10">
+        <v>240</v>
+      </c>
+      <c r="D248" s="10">
+        <v>8000000118</v>
+      </c>
+      <c r="E248" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="249">
+      <c r="A249" s="10">
+        <v>197581</v>
+      </c>
+      <c r="B249" s="10" t="inlineStr">
+        <is>
+          <t>28-04-2020</t>
+        </is>
+      </c>
+      <c r="C249" s="10">
+        <v>60</v>
+      </c>
+      <c r="D249" s="10">
+        <v>8000000119</v>
+      </c>
+      <c r="E249" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="250">
+      <c r="A250" s="10">
+        <v>197582</v>
+      </c>
+      <c r="B250" s="10" t="inlineStr">
+        <is>
+          <t>29-04-2020</t>
+        </is>
+      </c>
+      <c r="C250" s="10">
+        <v>60</v>
+      </c>
+      <c r="D250" s="10">
+        <v>8000000120</v>
+      </c>
+      <c r="E250" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="251">
+      <c r="A251" s="10">
+        <v>197583</v>
+      </c>
+      <c r="B251" s="10" t="inlineStr">
+        <is>
+          <t>30-04-2020</t>
+        </is>
+      </c>
+      <c r="C251" s="10">
+        <v>120</v>
+      </c>
+      <c r="D251" s="10">
+        <v>8000000121</v>
+      </c>
+      <c r="E251" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="252">
+      <c r="A252" s="10">
+        <v>197584</v>
+      </c>
+      <c r="B252" s="10" t="inlineStr">
+        <is>
+          <t>01-05-2020</t>
+        </is>
+      </c>
+      <c r="C252" s="10">
+        <v>60</v>
+      </c>
+      <c r="D252" s="10">
+        <v>8000000122</v>
+      </c>
+      <c r="E252" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="253">
+      <c r="A253" s="10">
+        <v>197585</v>
+      </c>
+      <c r="B253" s="10" t="inlineStr">
+        <is>
+          <t>02-05-2020</t>
+        </is>
+      </c>
+      <c r="C253" s="10">
+        <v>60</v>
+      </c>
+      <c r="D253" s="10">
+        <v>8000000123</v>
+      </c>
+      <c r="E253" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="254">
+      <c r="A254" s="10">
+        <v>197586</v>
+      </c>
+      <c r="B254" s="10" t="inlineStr">
+        <is>
+          <t>03-05-2020</t>
+        </is>
+      </c>
+      <c r="C254" s="10">
+        <v>120</v>
+      </c>
+      <c r="D254" s="10">
+        <v>8000000124</v>
+      </c>
+      <c r="E254" s="10" t="inlineStr">
+        <is>
+          <t>LD nacional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="255">
+      <c r="A255" s="10">
+        <v>197587</v>
+      </c>
+      <c r="B255" s="10" t="inlineStr">
+        <is>
+          <t>04-05-2020</t>
+        </is>
+      </c>
+      <c r="C255" s="10">
+        <v>60</v>
+      </c>
+      <c r="D255" s="10">
+        <v>8000000125</v>
+      </c>
+      <c r="E255" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="256">
+      <c r="A256" s="10">
+        <v>197588</v>
+      </c>
+      <c r="B256" s="10" t="inlineStr">
+        <is>
+          <t>05-05-2020</t>
+        </is>
+      </c>
+      <c r="C256" s="10">
+        <v>60</v>
+      </c>
+      <c r="D256" s="10">
+        <v>8000000126</v>
+      </c>
+      <c r="E256" s="10" t="inlineStr">
+        <is>
+          <t>LD nacional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="257">
+      <c r="A257" s="10">
+        <v>197589</v>
+      </c>
+      <c r="B257" s="10" t="inlineStr">
+        <is>
+          <t>06-05-2020</t>
+        </is>
+      </c>
+      <c r="C257" s="10">
+        <v>60</v>
+      </c>
+      <c r="D257" s="10">
+        <v>8000000127</v>
+      </c>
+      <c r="E257" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="258">
+      <c r="A258" s="10">
+        <v>197590</v>
+      </c>
+      <c r="B258" s="10" t="inlineStr">
+        <is>
+          <t>07-05-2020</t>
+        </is>
+      </c>
+      <c r="C258" s="10">
+        <v>60</v>
+      </c>
+      <c r="D258" s="10">
+        <v>8000000128</v>
+      </c>
+      <c r="E258" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="259">
+      <c r="A259" s="10">
+        <v>197591</v>
+      </c>
+      <c r="B259" s="10" t="inlineStr">
+        <is>
+          <t>08-05-2020</t>
+        </is>
+      </c>
+      <c r="C259" s="10">
+        <v>120</v>
+      </c>
+      <c r="D259" s="10">
+        <v>8000000129</v>
+      </c>
+      <c r="E259" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3054,10 +5763,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BE18A8-41D7-4E77-AE1F-ABB4243DACCC}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" rightToLeft="false">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -3066,7 +5775,7 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row spans="1:2" x14ac:dyDescent="0.2" outlineLevel="0" r="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3074,7 +5783,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row spans="1:2" x14ac:dyDescent="0.2" outlineLevel="0" r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3082,7 +5791,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row spans="1:2" x14ac:dyDescent="0.2" outlineLevel="0" r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3090,11 +5799,41 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row spans="1:2" x14ac:dyDescent="0.2" outlineLevel="0" r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="10" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
+      <c r="B5" s="10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="10" t="inlineStr">
+        <is>
+          <t>LD nacional</t>
+        </is>
+      </c>
+      <c r="B6" s="10">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="10" t="inlineStr">
+        <is>
+          <t>Cel LD</t>
+        </is>
+      </c>
+      <c r="B7" s="10">
         <v>0.5</v>
       </c>
     </row>
